--- a/3gk.xlsx
+++ b/3gk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14670" windowHeight="12270" tabRatio="729" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="14670" windowHeight="12270" tabRatio="729" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="防守" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="已完成英雄" sheetId="6" r:id="rId6"/>
     <sheet name="知天套" sheetId="7" r:id="rId7"/>
     <sheet name="天妒套" sheetId="8" r:id="rId8"/>
+    <sheet name="暴征狂言克己" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1129,10 +1130,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1225,6 +1226,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1232,37 +1255,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,7 +1278,76 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1292,79 +1362,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1437,19 +1438,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,7 +1522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,25 +1534,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,67 +1570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,25 +1588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,7 +1612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,6 +1667,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1677,15 +1722,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1728,41 +1764,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1771,145 +1772,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6031,7 +6032,7 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -8101,4 +8102,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>